--- a/untitled/SeleniumScripts/NewConnectOrders.xlsx
+++ b/untitled/SeleniumScripts/NewConnectOrders.xlsx
@@ -3,11 +3,19 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="13020" windowWidth="28800" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="3" windowHeight="13020" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="02-FEB-2018" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="061-FEB-2018" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="06-FEB-2018" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="06-FEB-20181" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="07-FEB-2018" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="07-FEB-20181" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="07-FEB-20182" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="07-FEB-20183" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -15,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Transaction Reference</t>
   </si>
@@ -33,6 +41,36 @@
   </si>
   <si>
     <t>AA:BB:CC:1C:5E:58</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>SPark_06FEB20183</t>
+  </si>
+  <si>
+    <t>402906998</t>
+  </si>
+  <si>
+    <t>AA:BB:CC:2B:F4:FB</t>
+  </si>
+  <si>
+    <t>SPark_06FEB20181</t>
+  </si>
+  <si>
+    <t>402907168</t>
+  </si>
+  <si>
+    <t>AA:BB:CC:3B:09:51</t>
+  </si>
+  <si>
+    <t>SPark_07FEB20183</t>
+  </si>
+  <si>
+    <t>402907738</t>
+  </si>
+  <si>
+    <t>AA:BB:CC:01:36:C2</t>
   </si>
 </sst>
 </file>
@@ -370,13 +408,31 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -419,4 +475,209 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="21"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="18.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/untitled/SeleniumScripts/NewConnectOrders.xlsx
+++ b/untitled/SeleniumScripts/NewConnectOrders.xlsx
@@ -3,19 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="13020" windowWidth="28800" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" windowHeight="13020" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="02-FEB-2018" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="061-FEB-2018" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="06-FEB-2018" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="06-FEB-20181" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="07-FEB-2018" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="07-FEB-20181" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="07-FEB-20182" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="07-FEB-20183" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="20-FEB-2018" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20-FEB-20181" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20-FEB-20182" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>Transaction Reference</t>
   </si>
@@ -34,43 +28,13 @@
     <t>MAC</t>
   </si>
   <si>
-    <t>SPark_02FEB20186</t>
-  </si>
-  <si>
-    <t>402906338</t>
-  </si>
-  <si>
-    <t>AA:BB:CC:1C:5E:58</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>SPark_06FEB20183</t>
-  </si>
-  <si>
-    <t>402906998</t>
-  </si>
-  <si>
-    <t>AA:BB:CC:2B:F4:FB</t>
-  </si>
-  <si>
-    <t>SPark_06FEB20181</t>
-  </si>
-  <si>
-    <t>402907168</t>
-  </si>
-  <si>
-    <t>AA:BB:CC:3B:09:51</t>
-  </si>
-  <si>
-    <t>SPark_07FEB20183</t>
-  </si>
-  <si>
-    <t>402907738</t>
-  </si>
-  <si>
-    <t>AA:BB:CC:01:36:C2</t>
+    <t>SPark_AABBCCCD8577</t>
+  </si>
+  <si>
+    <t>402910590</t>
+  </si>
+  <si>
+    <t>AA:BB:CC:CD:85:77</t>
   </si>
 </sst>
 </file>
@@ -408,31 +372,13 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -483,116 +429,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="1:2">
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="21"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="18.140625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -605,66 +441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
